--- a/DataLocations.xlsx
+++ b/DataLocations.xlsx
@@ -24,16 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="67">
-  <si>
-    <t>"location"</t>
-  </si>
-  <si>
-    <t>"Lat"</t>
-  </si>
-  <si>
-    <t>"lon"</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="71">
   <si>
     <t>12th South</t>
   </si>
@@ -95,9 +86,6 @@
     <t>Germantown</t>
   </si>
   <si>
-    <t>Hartsville</t>
-  </si>
-  <si>
     <t>HendersonVille</t>
   </si>
   <si>
@@ -225,6 +213,30 @@
   </si>
   <si>
     <t>Raintrec</t>
+  </si>
+  <si>
+    <t>Average Price</t>
+  </si>
+  <si>
+    <t>Total Listings</t>
+  </si>
+  <si>
+    <t>SD</t>
+  </si>
+  <si>
+    <t>Common Price</t>
+  </si>
+  <si>
+    <t>Common size</t>
+  </si>
+  <si>
+    <t>location</t>
+  </si>
+  <si>
+    <t>Lat</t>
+  </si>
+  <si>
+    <t>lon</t>
   </si>
 </sst>
 </file>
@@ -614,10 +626,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D64"/>
+  <dimension ref="A1:H63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -625,23 +637,42 @@
     <col min="1" max="1" width="11.6640625" customWidth="1"/>
     <col min="2" max="2" width="13.5546875" customWidth="1"/>
     <col min="3" max="3" width="14.21875" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" customWidth="1"/>
+    <col min="6" max="6" width="16" customWidth="1"/>
+    <col min="7" max="7" width="14" customWidth="1"/>
+    <col min="8" max="8" width="16.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>69</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1"/>
-    </row>
-    <row r="2" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B2" s="2">
         <v>36.125247999999999</v>
@@ -649,13 +680,25 @@
       <c r="C2" s="2">
         <v>-86.789389</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D2" s="2">
+        <v>1723</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B3" s="2">
         <v>36.059717999999997</v>
@@ -663,13 +706,25 @@
       <c r="C3" s="2">
         <v>-86.671594999999996</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="D3" s="2">
+        <v>1054.5</v>
+      </c>
+      <c r="E3" s="2">
+        <v>21</v>
+      </c>
+      <c r="F3" s="2">
+        <v>329.15</v>
+      </c>
+      <c r="G3" s="2">
+        <v>1600</v>
+      </c>
+      <c r="H3" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B4" s="2">
         <v>36.104770000000002</v>
@@ -677,13 +732,23 @@
       <c r="C4" s="2">
         <v>-86.865712000000002</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="2">
+        <v>1730.1669999999999</v>
+      </c>
+      <c r="E4" s="2">
+        <v>6</v>
+      </c>
+      <c r="F4" s="2">
+        <v>1018.427</v>
+      </c>
+      <c r="G4" s="2">
+        <v>1999</v>
+      </c>
+      <c r="H4" s="2"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>7</v>
       </c>
       <c r="B5" s="2">
         <v>36.072732999999999</v>
@@ -691,13 +756,25 @@
       <c r="C5" s="2">
         <v>-86.962408999999994</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="D5" s="2">
+        <v>1227.778</v>
+      </c>
+      <c r="E5" s="2">
+        <v>9</v>
+      </c>
+      <c r="F5" s="2">
+        <v>134.90989999999999</v>
+      </c>
+      <c r="G5" s="2">
+        <v>1100</v>
+      </c>
+      <c r="H5" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B6" s="2">
         <v>36.125382000000002</v>
@@ -705,13 +782,23 @@
       <c r="C6" s="2">
         <v>-86.794413000000006</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="2">
+        <v>1350</v>
+      </c>
+      <c r="E6" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F6" s="2">
+        <v>334.16559999999998</v>
+      </c>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B7" s="2">
         <v>36.118295000000003</v>
@@ -719,13 +806,25 @@
       <c r="C7" s="2">
         <v>-86.783108999999996</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D7" s="2">
+        <v>2800</v>
+      </c>
+      <c r="E7" s="2">
+        <v>1</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0</v>
+      </c>
+      <c r="G7" s="2">
+        <v>2800</v>
+      </c>
+      <c r="H7" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B8" s="2">
         <v>36.033116</v>
@@ -733,13 +832,25 @@
       <c r="C8" s="2">
         <v>-86.782776999999996</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="D8" s="2">
+        <v>1701.933</v>
+      </c>
+      <c r="E8" s="2">
+        <v>14</v>
+      </c>
+      <c r="F8" s="2">
+        <v>764.09090000000003</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B9" s="2">
         <v>36.149025999999999</v>
@@ -747,11 +858,21 @@
       <c r="C9" s="2">
         <v>-86.811991000000006</v>
       </c>
-      <c r="D9" s="2"/>
-    </row>
-    <row r="10" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="D9" s="2">
+        <v>1322.5</v>
+      </c>
+      <c r="E9" s="2">
+        <v>2</v>
+      </c>
+      <c r="F9" s="2">
+        <v>53.033009999999997</v>
+      </c>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+    </row>
+    <row r="10" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B10" s="2">
         <v>36.149335000000001</v>
@@ -759,13 +880,25 @@
       <c r="C10" s="2">
         <v>-86.879737000000006</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D10" s="2">
+        <v>1100</v>
+      </c>
+      <c r="E10" s="2">
+        <v>1</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0</v>
+      </c>
+      <c r="G10" s="2">
+        <v>1100</v>
+      </c>
+      <c r="H10" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B11" s="2">
         <v>36.529770999999997</v>
@@ -773,13 +906,25 @@
       <c r="C11" s="2">
         <v>-87.359453000000002</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="2">
+        <v>949.5</v>
+      </c>
+      <c r="E11" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F11" s="2">
+        <v>289.2525</v>
+      </c>
+      <c r="G11" s="2">
+        <v>699</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B12" s="2">
         <v>35.615071999999998</v>
@@ -787,13 +932,25 @@
       <c r="C12" s="2">
         <v>-87.035283000000007</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D12" s="2">
+        <v>960</v>
+      </c>
+      <c r="E12" s="2">
+        <v>1</v>
+      </c>
+      <c r="F12" s="2">
+        <v>0</v>
+      </c>
+      <c r="G12" s="2">
+        <v>960</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B13" s="2">
         <v>35.957225999999999</v>
@@ -801,13 +958,25 @@
       <c r="C13" s="2">
         <v>-86.813609999999997</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D13" s="2">
+        <v>1149</v>
+      </c>
+      <c r="E13" s="2">
+        <v>2</v>
+      </c>
+      <c r="F13" s="2">
+        <v>70.710679999999996</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B14" s="2">
         <v>36.152513999999996</v>
@@ -815,13 +984,25 @@
       <c r="C14" s="2">
         <v>-86.871588000000003</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="D14" s="2">
+        <v>864</v>
+      </c>
+      <c r="E14" s="2">
+        <v>1</v>
+      </c>
+      <c r="F14" s="2">
+        <v>0</v>
+      </c>
+      <c r="G14" s="2">
+        <v>864</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B15" s="2">
         <v>36.181628000000003</v>
@@ -829,13 +1010,25 @@
       <c r="C15" s="2">
         <v>-86.818268000000003</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D15" s="2">
+        <v>850</v>
+      </c>
+      <c r="E15" s="2">
+        <v>2</v>
+      </c>
+      <c r="F15" s="2">
+        <v>0</v>
+      </c>
+      <c r="G15" s="2">
+        <v>850</v>
+      </c>
+      <c r="H15" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B16" s="2">
         <v>36.162557</v>
@@ -843,13 +1036,25 @@
       <c r="C16" s="2">
         <v>-86.669996999999995</v>
       </c>
-      <c r="D16" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D16" s="2">
+        <v>1149</v>
+      </c>
+      <c r="E16" s="2">
+        <v>2</v>
+      </c>
+      <c r="F16" s="2">
+        <v>0</v>
+      </c>
+      <c r="G16" s="2">
+        <v>1149</v>
+      </c>
+      <c r="H16" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B17" s="2">
         <v>36.162663999999999</v>
@@ -857,13 +1062,25 @@
       <c r="C17" s="2">
         <v>-86.781602000000007</v>
       </c>
-      <c r="D17" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D17" s="2">
+        <v>1475.875</v>
+      </c>
+      <c r="E17" s="2">
+        <v>15</v>
+      </c>
+      <c r="F17" s="2">
+        <v>271.61540000000002</v>
+      </c>
+      <c r="G17" s="2">
+        <v>1249</v>
+      </c>
+      <c r="H17" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B18" s="2">
         <v>36.174320000000002</v>
@@ -871,13 +1088,25 @@
       <c r="C18" s="2">
         <v>-86.747923</v>
       </c>
-      <c r="D18" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D18" s="2">
+        <v>1500</v>
+      </c>
+      <c r="E18" s="2">
+        <v>2</v>
+      </c>
+      <c r="F18" s="2">
+        <v>0</v>
+      </c>
+      <c r="G18" s="2">
+        <v>1500</v>
+      </c>
+      <c r="H18" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B19" s="2">
         <v>36.186078999999999</v>
@@ -885,13 +1114,25 @@
       <c r="C19" s="2">
         <v>-86.731578999999996</v>
       </c>
-      <c r="D19" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D19" s="2">
+        <v>1552.0909999999999</v>
+      </c>
+      <c r="E19" s="2">
+        <v>21</v>
+      </c>
+      <c r="F19" s="2">
+        <v>456.17450000000002</v>
+      </c>
+      <c r="G19" s="2">
+        <v>1300</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B20" s="2">
         <v>36.175738000000003</v>
@@ -899,13 +1140,25 @@
       <c r="C20" s="2">
         <v>-86.755350000000007</v>
       </c>
-      <c r="D20" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D20" s="2">
+        <v>1750</v>
+      </c>
+      <c r="E20" s="2">
+        <v>3</v>
+      </c>
+      <c r="F20" s="2">
+        <v>433.0127</v>
+      </c>
+      <c r="G20" s="2">
+        <v>2000</v>
+      </c>
+      <c r="H20" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B21" s="2">
         <v>36.141393999999998</v>
@@ -913,13 +1166,25 @@
       <c r="C21" s="2">
         <v>-86.784364999999994</v>
       </c>
-      <c r="D21" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D21" s="2">
+        <v>4000</v>
+      </c>
+      <c r="E21" s="2">
+        <v>1</v>
+      </c>
+      <c r="F21" s="2">
+        <v>0</v>
+      </c>
+      <c r="G21" s="2">
+        <v>4000</v>
+      </c>
+      <c r="H21" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B22" s="2">
         <v>36.149890999999997</v>
@@ -927,13 +1192,25 @@
       <c r="C22" s="2">
         <v>-86.806117</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D22" s="2">
+        <v>1411.5</v>
+      </c>
+      <c r="E22" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F22" s="2">
+        <v>131.49780000000001</v>
+      </c>
+      <c r="G22" s="2">
+        <v>1299</v>
+      </c>
+      <c r="H22" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B23" s="2">
         <v>36.130960999999999</v>
@@ -941,13 +1218,23 @@
       <c r="C23" s="2">
         <v>-86.765505000000005</v>
       </c>
-      <c r="D23" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D23" s="2">
+        <v>3400</v>
+      </c>
+      <c r="E23" s="2">
+        <v>1</v>
+      </c>
+      <c r="F23" s="2">
+        <v>0</v>
+      </c>
+      <c r="G23" s="2">
+        <v>3400</v>
+      </c>
+      <c r="H23" s="2"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B24" s="2">
         <v>35.925063999999999</v>
@@ -955,27 +1242,51 @@
       <c r="C24" s="2">
         <v>-86.868889999999993</v>
       </c>
-      <c r="D24" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D24" s="2">
+        <v>1425.826</v>
+      </c>
+      <c r="E24" s="2">
+        <v>22</v>
+      </c>
+      <c r="F24" s="2">
+        <v>323.34570000000002</v>
+      </c>
+      <c r="G24" s="2">
+        <v>1185</v>
+      </c>
+      <c r="H24" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B25" s="2">
         <v>36.388381000000003</v>
       </c>
       <c r="C25" s="2">
-        <v>86.446659999999994</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-86.446659999999994</v>
+      </c>
+      <c r="D25" s="2">
+        <v>1004.667</v>
+      </c>
+      <c r="E25" s="2">
+        <v>3</v>
+      </c>
+      <c r="F25" s="2">
+        <v>82.947770000000006</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H25" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B26" s="2">
         <v>36.178114000000001</v>
@@ -983,13 +1294,25 @@
       <c r="C26" s="2">
         <v>-86.788133000000002</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="D26" s="2">
+        <v>1347</v>
+      </c>
+      <c r="E26" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F26" s="2">
+        <v>326.4769</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H26" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B27" s="2">
         <v>36.101908999999999</v>
@@ -997,13 +1320,23 @@
       <c r="C27" s="2">
         <v>-86.729062999999996</v>
       </c>
-      <c r="D27" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D27" s="2">
+        <v>1425</v>
+      </c>
+      <c r="E27" s="2">
+        <v>2</v>
+      </c>
+      <c r="F27" s="2">
+        <v>318.19810000000001</v>
+      </c>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B28" s="2">
         <v>36.106983999999997</v>
@@ -1011,13 +1344,25 @@
       <c r="C28" s="2">
         <v>-86.817013000000003</v>
       </c>
-      <c r="D28" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D28" s="2">
+        <v>1582.9949999999999</v>
+      </c>
+      <c r="E28" s="2">
+        <v>21</v>
+      </c>
+      <c r="F28" s="2">
+        <v>308.67099999999999</v>
+      </c>
+      <c r="G28" s="2">
+        <v>1760</v>
+      </c>
+      <c r="H28" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B29" s="2">
         <v>36.166066000000001</v>
@@ -1025,13 +1370,25 @@
       <c r="C29" s="2">
         <v>-86.822981999999996</v>
       </c>
-      <c r="D29" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="D29" s="2">
+        <v>1200</v>
+      </c>
+      <c r="E29" s="2">
+        <v>1</v>
+      </c>
+      <c r="F29" s="2">
+        <v>0</v>
+      </c>
+      <c r="G29" s="2">
+        <v>1200</v>
+      </c>
+      <c r="H29" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B30" s="2">
         <v>36.174408999999997</v>
@@ -1039,488 +1396,882 @@
       <c r="C30" s="2">
         <v>-86.676846999999995</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="D30" s="2">
+        <v>1500</v>
+      </c>
+      <c r="E30" s="2">
+        <v>1</v>
+      </c>
+      <c r="F30" s="2">
+        <v>0</v>
+      </c>
+      <c r="G30" s="2">
+        <v>1500</v>
+      </c>
+      <c r="H30" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B31" s="2">
+        <v>36.212575000000001</v>
+      </c>
+      <c r="C31" s="2">
+        <v>-86.809481000000005</v>
+      </c>
+      <c r="D31" s="2">
+        <v>2749.5</v>
+      </c>
+      <c r="E31" s="2">
+        <v>2</v>
+      </c>
+      <c r="F31" s="2">
+        <v>70.003569999999996</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H31" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B32" s="2">
+        <v>36.304774000000002</v>
+      </c>
+      <c r="C32" s="2">
+        <v>-86.619996</v>
+      </c>
+      <c r="D32" s="2">
+        <v>1049.133</v>
+      </c>
+      <c r="E32" s="2">
+        <v>14</v>
+      </c>
+      <c r="F32" s="2">
+        <v>203.37569999999999</v>
+      </c>
+      <c r="G32" s="2">
+        <v>899</v>
+      </c>
+      <c r="H32" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B33" s="2">
+        <v>36.198849000000003</v>
+      </c>
+      <c r="C33" s="2">
+        <v>-86.619777999999997</v>
+      </c>
+      <c r="D33" s="2">
+        <v>1008.944</v>
+      </c>
+      <c r="E33" s="2">
+        <v>17</v>
+      </c>
+      <c r="F33" s="2">
+        <v>279.5573</v>
+      </c>
+      <c r="G33" s="2">
+        <v>895</v>
+      </c>
+      <c r="H33" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B34" s="2">
+        <v>36.130276000000002</v>
+      </c>
+      <c r="C34" s="2">
+        <v>-86.877229999999997</v>
+      </c>
+      <c r="D34" s="2">
+        <v>2000</v>
+      </c>
+      <c r="E34" s="2">
+        <v>1</v>
+      </c>
+      <c r="F34" s="2">
+        <v>0</v>
+      </c>
+      <c r="G34" s="2">
+        <v>2000</v>
+      </c>
+      <c r="H34" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="2" t="s">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B35" s="2">
+        <v>36.015618000000003</v>
+      </c>
+      <c r="C35" s="2">
+        <v>-86.581939000000006</v>
+      </c>
+      <c r="D35" s="2">
+        <v>1200</v>
+      </c>
+      <c r="E35" s="2">
+        <v>1</v>
+      </c>
+      <c r="F35" s="2">
+        <v>0</v>
+      </c>
+      <c r="G35" s="2">
+        <v>1200</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A36" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B31" s="2">
-        <v>36.391108000000003</v>
-      </c>
-      <c r="C31" s="2">
-        <v>-86.166101999999995</v>
-      </c>
-      <c r="D31" s="2" t="s">
+      <c r="B36" s="2">
+        <v>36.208109999999998</v>
+      </c>
+      <c r="C36" s="2">
+        <v>-86.291101999999995</v>
+      </c>
+      <c r="D36" s="2">
+        <v>1072.8240000000001</v>
+      </c>
+      <c r="E36" s="2">
+        <v>16</v>
+      </c>
+      <c r="F36" s="2">
+        <v>205.24629999999999</v>
+      </c>
+      <c r="G36" s="2">
+        <v>970</v>
+      </c>
+      <c r="H36" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A37" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B37" s="2">
+        <v>36.178150000000002</v>
+      </c>
+      <c r="C37" s="2">
+        <v>-86.739123000000006</v>
+      </c>
+      <c r="D37" s="2">
+        <v>2000</v>
+      </c>
+      <c r="E37" s="2">
+        <v>1</v>
+      </c>
+      <c r="F37" s="2">
+        <v>0</v>
+      </c>
+      <c r="G37" s="2">
+        <v>2000</v>
+      </c>
+      <c r="H37" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A38" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B38" s="2">
+        <v>36.2562</v>
+      </c>
+      <c r="C38" s="2">
+        <v>-86.714352000000005</v>
+      </c>
+      <c r="D38" s="2">
+        <v>920.96669999999995</v>
+      </c>
+      <c r="E38" s="2">
+        <v>30</v>
+      </c>
+      <c r="F38" s="2">
+        <v>134.88499999999999</v>
+      </c>
+      <c r="G38" s="2">
+        <v>985</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A39" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B39" s="2">
+        <v>36.255913999999997</v>
+      </c>
+      <c r="C39" s="2">
+        <v>-86.912322000000003</v>
+      </c>
+      <c r="D39" s="2">
+        <v>1595</v>
+      </c>
+      <c r="E39" s="2">
+        <v>1</v>
+      </c>
+      <c r="F39" s="2">
+        <v>0</v>
+      </c>
+      <c r="G39" s="2">
+        <v>1595</v>
+      </c>
+      <c r="H39" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A40" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B40" s="2">
+        <v>36.122160999999998</v>
+      </c>
+      <c r="C40" s="2">
+        <v>-86.775216999999998</v>
+      </c>
+      <c r="D40" s="2">
+        <v>1838.5</v>
+      </c>
+      <c r="E40" s="2">
+        <v>6</v>
+      </c>
+      <c r="F40" s="2">
+        <v>711</v>
+      </c>
+      <c r="G40" s="2">
+        <v>2749</v>
+      </c>
+      <c r="H40" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A41" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B41" s="2">
+        <v>36.200054999999999</v>
+      </c>
+      <c r="C41" s="2">
+        <v>-86.518604999999994</v>
+      </c>
+      <c r="D41" s="2">
+        <v>1322.143</v>
+      </c>
+      <c r="E41" s="2">
+        <v>13</v>
+      </c>
+      <c r="F41" s="2">
+        <v>127.6521</v>
+      </c>
+      <c r="G41" s="2">
+        <v>1425</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A42" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B42" s="2">
+        <v>35.534241000000002</v>
+      </c>
+      <c r="C42" s="2">
+        <v>-87.206953999999996</v>
+      </c>
+      <c r="D42" s="2">
+        <v>700</v>
+      </c>
+      <c r="E42" s="2">
+        <v>1</v>
+      </c>
+      <c r="F42" s="2">
+        <v>0</v>
+      </c>
+      <c r="G42" s="2">
+        <v>700</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A43" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B43" s="2">
+        <v>35.845621000000001</v>
+      </c>
+      <c r="C43" s="2">
+        <v>-86.390270000000001</v>
+      </c>
+      <c r="D43" s="2">
+        <v>943.20690000000002</v>
+      </c>
+      <c r="E43" s="2">
+        <v>28</v>
+      </c>
+      <c r="F43" s="2">
+        <v>334.62169999999998</v>
+      </c>
+      <c r="G43" s="2">
+        <v>1005</v>
+      </c>
+      <c r="H43" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A44" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B44" s="2">
+        <v>36.146880000000003</v>
+      </c>
+      <c r="C44" s="2">
+        <v>-86.793805000000006</v>
+      </c>
+      <c r="D44" s="2">
+        <v>2200.6</v>
+      </c>
+      <c r="E44" s="2">
+        <v>5</v>
+      </c>
+      <c r="F44" s="2">
+        <v>988.59209999999996</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A45" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B45" s="2">
+        <v>36.151349000000003</v>
+      </c>
+      <c r="C45" s="2">
+        <v>-86.776199000000005</v>
+      </c>
+      <c r="D45" s="2">
+        <v>1650</v>
+      </c>
+      <c r="E45" s="2">
+        <v>1</v>
+      </c>
+      <c r="F45" s="2">
+        <v>0</v>
+      </c>
+      <c r="G45" s="2">
+        <v>1650</v>
+      </c>
+      <c r="H45" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A46" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B46" s="2">
+        <v>36.286512999999999</v>
+      </c>
+      <c r="C46" s="2">
+        <v>-86.788133000000002</v>
+      </c>
+      <c r="D46" s="2">
+        <v>1895</v>
+      </c>
+      <c r="E46" s="2">
+        <v>1</v>
+      </c>
+      <c r="F46" s="2">
+        <v>0</v>
+      </c>
+      <c r="G46" s="2">
+        <v>1895</v>
+      </c>
+      <c r="H46" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A47" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B47" s="2">
+        <v>36.10371</v>
+      </c>
+      <c r="C47" s="2">
+        <v>-86.745408999999995</v>
+      </c>
+      <c r="D47" s="2">
+        <v>1250</v>
+      </c>
+      <c r="E47" s="2">
+        <v>1</v>
+      </c>
+      <c r="F47" s="2">
+        <v>0</v>
+      </c>
+      <c r="G47" s="2">
+        <v>1250</v>
+      </c>
+      <c r="H47" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A48" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B48" s="2">
+        <v>36.060062000000002</v>
+      </c>
+      <c r="C48" s="2">
+        <v>-86.737864999999999</v>
+      </c>
+      <c r="D48" s="2">
+        <v>1950</v>
+      </c>
+      <c r="E48" s="2">
+        <v>3</v>
+      </c>
+      <c r="F48" s="2">
+        <v>50</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H48" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A49" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B49" s="2">
+        <v>36.240228999999999</v>
+      </c>
+      <c r="C49" s="2">
+        <v>-86.704535000000007</v>
+      </c>
+      <c r="D49" s="2">
+        <v>1481.6669999999999</v>
+      </c>
+      <c r="E49" s="2">
+        <v>3</v>
+      </c>
+      <c r="F49" s="2">
+        <v>54.848280000000003</v>
+      </c>
+      <c r="G49" s="2">
+        <v>1450</v>
+      </c>
+      <c r="H49" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A50" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B50" s="2">
+        <v>36.184345999999998</v>
+      </c>
+      <c r="C50" s="2">
+        <v>-86.717743999999996</v>
+      </c>
+      <c r="D50" s="2">
+        <v>1475</v>
+      </c>
+      <c r="E50" s="2">
+        <v>1</v>
+      </c>
+      <c r="F50" s="2">
+        <v>0</v>
+      </c>
+      <c r="G50" s="2">
+        <v>1475</v>
+      </c>
+      <c r="H50" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A51" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B51" s="2">
+        <v>35.483406000000002</v>
+      </c>
+      <c r="C51" s="2">
+        <v>-86.460272000000003</v>
+      </c>
+      <c r="D51" s="2">
+        <v>1600</v>
+      </c>
+      <c r="E51" s="2">
+        <v>1</v>
+      </c>
+      <c r="F51" s="2">
+        <v>0</v>
+      </c>
+      <c r="G51" s="2">
+        <v>1600</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A52" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B52" s="2">
+        <v>35.982841000000001</v>
+      </c>
+      <c r="C52" s="2">
+        <v>-86.518603999999996</v>
+      </c>
+      <c r="D52" s="2">
+        <v>1217.125</v>
+      </c>
+      <c r="E52" s="2">
+        <v>8</v>
+      </c>
+      <c r="F52" s="2">
+        <v>226.66909999999999</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A53" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B53" s="2">
+        <v>36.156146999999997</v>
+      </c>
+      <c r="C53" s="2">
+        <v>-86.778084000000007</v>
+      </c>
+      <c r="D53" s="2">
+        <v>2242.5</v>
+      </c>
+      <c r="E53" s="2">
+        <v>2</v>
+      </c>
+      <c r="F53" s="2">
+        <v>915.70330000000001</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A54" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B54" s="2">
+        <v>36.126888999999998</v>
+      </c>
+      <c r="C54" s="2">
+        <v>-86.756201000000004</v>
+      </c>
+      <c r="D54" s="2">
+        <v>1029</v>
+      </c>
+      <c r="E54" s="2">
+        <v>6</v>
+      </c>
+      <c r="F54" s="2">
+        <v>57.772260000000003</v>
+      </c>
+      <c r="G54" s="2">
+        <v>1079</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A55" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B55" s="2">
+        <v>35.751179</v>
+      </c>
+      <c r="C55" s="2">
+        <v>-86.930002000000002</v>
+      </c>
+      <c r="D55" s="2">
+        <v>1508</v>
+      </c>
+      <c r="E55" s="2">
+        <v>7</v>
+      </c>
+      <c r="F55" s="2">
+        <v>355.94760000000002</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H55" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A56" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B56" s="2">
+        <v>36.509211999999998</v>
+      </c>
+      <c r="C56" s="2">
+        <v>-86.884997999999996</v>
+      </c>
+      <c r="D56" s="2">
+        <v>1010</v>
+      </c>
+      <c r="E56" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B32" s="2">
-        <v>36.212575000000001</v>
-      </c>
-      <c r="C32" s="2">
-        <v>-86.809481000000005</v>
-      </c>
-      <c r="D32" s="2" t="s">
+      <c r="F56" s="2">
+        <v>20</v>
+      </c>
+      <c r="G56" s="2">
+        <v>1020</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A57" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B57" s="2">
+        <v>36.142992</v>
+      </c>
+      <c r="C57" s="2">
+        <v>-86.844622000000001</v>
+      </c>
+      <c r="D57" s="2">
+        <v>1831.7</v>
+      </c>
+      <c r="E57" s="2">
+        <v>10</v>
+      </c>
+      <c r="F57" s="2">
+        <v>845.59220000000005</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H57" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A58" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B58" s="2">
+        <v>36.208857000000002</v>
+      </c>
+      <c r="C58" s="2">
+        <v>-86.771801999999994</v>
+      </c>
+      <c r="D58" s="2">
+        <v>1645</v>
+      </c>
+      <c r="E58" s="2">
+        <v>1</v>
+      </c>
+      <c r="F58" s="2">
+        <v>0</v>
+      </c>
+      <c r="G58" s="2">
+        <v>1645</v>
+      </c>
+      <c r="H58" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A59" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B59" s="2">
+        <v>36.152873999999997</v>
+      </c>
+      <c r="C59" s="2">
+        <v>-86.782480000000007</v>
+      </c>
+      <c r="D59" s="2">
+        <v>2276.75</v>
+      </c>
+      <c r="E59" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A33" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B33" s="2">
-        <v>36.304774000000002</v>
-      </c>
-      <c r="C33" s="2">
-        <v>-86.619996</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B34" s="2">
-        <v>36.198849000000003</v>
-      </c>
-      <c r="C34" s="2">
-        <v>-86.619777999999997</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B35" s="2">
-        <v>36.130276000000002</v>
-      </c>
-      <c r="C35" s="2">
-        <v>-86.877229999999997</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B36" s="2">
-        <v>36.015618000000003</v>
-      </c>
-      <c r="C36" s="2">
-        <v>-86.581939000000006</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B37" s="2">
-        <v>36.208109999999998</v>
-      </c>
-      <c r="C37" s="2">
-        <v>-86.291101999999995</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A38" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B38" s="2">
-        <v>36.178150000000002</v>
-      </c>
-      <c r="C38" s="2">
-        <v>-86.739123000000006</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B39" s="2">
-        <v>36.2562</v>
-      </c>
-      <c r="C39" s="2">
-        <v>-86.714352000000005</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B40" s="2">
-        <v>36.255913999999997</v>
-      </c>
-      <c r="C40" s="2">
-        <v>-86.912322000000003</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B41" s="2">
-        <v>36.122160999999998</v>
-      </c>
-      <c r="C41" s="2">
-        <v>-86.775216999999998</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B42" s="2">
-        <v>36.200054999999999</v>
-      </c>
-      <c r="C42" s="2">
-        <v>-86.518604999999994</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B43" s="2">
-        <v>35.534241000000002</v>
-      </c>
-      <c r="C43" s="2">
-        <v>-87.206953999999996</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B44" s="2">
-        <v>35.845621000000001</v>
-      </c>
-      <c r="C44" s="2">
-        <v>-86.390270000000001</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B45" s="2">
-        <v>36.146880000000003</v>
-      </c>
-      <c r="C45" s="2">
-        <v>-86.793805000000006</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B46" s="2">
-        <v>36.151349000000003</v>
-      </c>
-      <c r="C46" s="2">
-        <v>-86.776199000000005</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B47" s="2">
-        <v>36.286512999999999</v>
-      </c>
-      <c r="C47" s="2">
-        <v>-86.788133000000002</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B48" s="2">
-        <v>36.10371</v>
-      </c>
-      <c r="C48" s="2">
-        <v>-86.745408999999995</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A49" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B49" s="2">
-        <v>36.060062000000002</v>
-      </c>
-      <c r="C49" s="2">
-        <v>-86.737864999999999</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A50" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B50" s="2">
-        <v>36.240228999999999</v>
-      </c>
-      <c r="C50" s="2">
-        <v>-86.704535000000007</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A51" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B51" s="2">
-        <v>36.184345999999998</v>
-      </c>
-      <c r="C51" s="2">
-        <v>-86.717743999999996</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A52" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B52" s="2">
-        <v>35.483406000000002</v>
-      </c>
-      <c r="C52" s="2">
-        <v>-86.460272000000003</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A53" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B53" s="2">
-        <v>35.982841000000001</v>
-      </c>
-      <c r="C53" s="2">
-        <v>-86.518603999999996</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A54" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B54" s="2">
-        <v>36.156146999999997</v>
-      </c>
-      <c r="C54" s="2">
-        <v>-86.778084000000007</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A55" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B55" s="2">
-        <v>36.126888999999998</v>
-      </c>
-      <c r="C55" s="2">
-        <v>-86.756201000000004</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A56" s="2" t="s">
+      <c r="F59" s="2">
+        <v>260.46159999999998</v>
+      </c>
+      <c r="G59" s="2">
+        <v>2499</v>
+      </c>
+      <c r="H59" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A60" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B56" s="2">
-        <v>35.751179</v>
-      </c>
-      <c r="C56" s="2">
-        <v>-86.930002000000002</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A57" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B57" s="2">
-        <v>36.509211999999998</v>
-      </c>
-      <c r="C57" s="2">
-        <v>-86.884997999999996</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A58" s="2" t="s">
+      <c r="B60" s="2">
+        <v>36.134652000000003</v>
+      </c>
+      <c r="C60" s="2">
+        <v>-86.783187999999996</v>
+      </c>
+      <c r="D60" s="2">
+        <v>1500</v>
+      </c>
+      <c r="E60" s="2">
+        <v>1</v>
+      </c>
+      <c r="F60" s="2">
+        <v>0</v>
+      </c>
+      <c r="G60" s="2">
+        <v>1500</v>
+      </c>
+      <c r="H60" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A61" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B58" s="2">
-        <v>36.142992</v>
-      </c>
-      <c r="C58" s="2">
-        <v>-86.844622000000001</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A59" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B59" s="2">
-        <v>36.208857000000002</v>
-      </c>
-      <c r="C59" s="2">
-        <v>-86.771801999999994</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A60" s="2" t="s">
+      <c r="B61" s="2">
+        <v>36.157699000000001</v>
+      </c>
+      <c r="C61" s="2">
+        <v>-86.797357000000005</v>
+      </c>
+      <c r="D61" s="2">
+        <v>1508.8710000000001</v>
+      </c>
+      <c r="E61" s="2">
+        <v>41</v>
+      </c>
+      <c r="F61" s="2">
+        <v>515.61059999999998</v>
+      </c>
+      <c r="G61" s="2">
+        <v>1299</v>
+      </c>
+      <c r="H61" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A62" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B60" s="2">
-        <v>36.152873999999997</v>
-      </c>
-      <c r="C60" s="2">
-        <v>-86.782480000000007</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A61" s="2" t="s">
+      <c r="B62" s="2">
+        <v>36.158946</v>
+      </c>
+      <c r="C62" s="2">
+        <v>-86.846389000000002</v>
+      </c>
+      <c r="D62" s="2">
+        <v>1207.25</v>
+      </c>
+      <c r="E62" s="2">
+        <v>12</v>
+      </c>
+      <c r="F62" s="2">
+        <v>164.3246</v>
+      </c>
+      <c r="G62" s="2">
+        <v>1259</v>
+      </c>
+      <c r="H62" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A63" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B61" s="2">
-        <v>36.134652000000003</v>
-      </c>
-      <c r="C61" s="2">
-        <v>-86.783187999999996</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A62" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B62" s="2">
-        <v>36.157699000000001</v>
-      </c>
-      <c r="C62" s="2">
-        <v>-86.797357000000005</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A63" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="B63" s="2">
-        <v>36.158946</v>
+        <v>36.129486999999997</v>
       </c>
       <c r="C63" s="2">
-        <v>-86.846389000000002</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A64" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B64" s="2">
-        <v>36.129486999999997</v>
-      </c>
-      <c r="C64" s="2">
         <v>-86.854558999999995</v>
       </c>
-      <c r="D64" s="2" t="s">
-        <v>4</v>
+      <c r="D63" s="2">
+        <v>991.2</v>
+      </c>
+      <c r="E63" s="2">
+        <v>5</v>
+      </c>
+      <c r="F63" s="2">
+        <v>134.2542</v>
+      </c>
+      <c r="G63" s="2">
+        <v>959</v>
+      </c>
+      <c r="H63" s="2" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:D64">
+  <sortState ref="A2:D63">
     <sortCondition ref="A2"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
